--- a/medicine/Enfance/Dominique_Mwankumi/Dominique_Mwankumi.xlsx
+++ b/medicine/Enfance/Dominique_Mwankumi/Dominique_Mwankumi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dominique Mwankumi, né le 8 juin 1965 à Bier[1] (République démocratique du Congo), est un illustrateur et auteur de littérature d'enfance et de jeunesse congolais. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dominique Mwankumi, né le 8 juin 1965 à Bier (République démocratique du Congo), est un illustrateur et auteur de littérature d'enfance et de jeunesse congolais. 
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dominique Mwankumi naît en 1965 dans la province de Bandundu. Doué en dessin, il étudie à l'Académie des beaux-arts de Kinshasa, puis à l'École de recherche graphique de l'Institut Saint-Luc de Bruxelles[1].
-Il se lance dans l'illustration et commence à publier ses albums pour l'enfance et la jeunesse, qu'il écrit et illustre en s'inspirant de la vie quotidienne dans son pays natal[2],[3]. « Cet artiste africain propose une démarche multiculturelle et une réponse écologique aux défis que pose la France postcoloniale à la jeunesse[4]. »
-En 2005, il est accueilli en résidence d'artiste à Douai[5].
-Il vit à Londres. « Dominique Mwankumi est l'un des auteurs d'origine congolaise les plus lus actuellement […], dans son genre de prédilection : les albums illustrés[6]. »
-De 2019 à 2023, il est sélectionné cinq années d'affilée pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dominique Mwankumi naît en 1965 dans la province de Bandundu. Doué en dessin, il étudie à l'Académie des beaux-arts de Kinshasa, puis à l'École de recherche graphique de l'Institut Saint-Luc de Bruxelles.
+Il se lance dans l'illustration et commence à publier ses albums pour l'enfance et la jeunesse, qu'il écrit et illustre en s'inspirant de la vie quotidienne dans son pays natal,. « Cet artiste africain propose une démarche multiculturelle et une réponse écologique aux défis que pose la France postcoloniale à la jeunesse. »
+En 2005, il est accueilli en résidence d'artiste à Douai.
+Il vit à Londres. « Dominique Mwankumi est l'un des auteurs d'origine congolaise les plus lus actuellement […], dans son genre de prédilection : les albums illustrés. »
+De 2019 à 2023, il est sélectionné cinq années d'affilée pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren.
 </t>
         </is>
       </c>
@@ -546,20 +560,16 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La Pêche à la marmite, L'École des loisirs, 1998
 Prince de la rue, L'École des loisirs, 1999
 Les Petits Acrobates du fleuve, L'École des loisirs, 2000
 Les Fruits du soleil, L'École des loisirs, 2002
 La Peur de l'eau, L'École des loisirs, 2006
-Wagenia : les pêcheurs intrépides du Congo, L'École des loisirs, 2009
-Illustrations
-Likambo Kwadje, Mon premier voyage, Le Caméléon vert, 2001
-Carl Norac, Kuli et le Sorcier, L'École des loisirs, 2001[8]
-Colette Hellings, Nsoko l’orphelin, L'Ecole des Loisirs, 2002
-Nana-Aïssa Touré, Yowa le petit dromadaire, Le Figuier, 2006
-Gustave Akakpo, Le Petit Monde merveilleux, éditions Grasset, 2007[9]</t>
+Wagenia : les pêcheurs intrépides du Congo, L'École des loisirs, 2009</t>
         </is>
       </c>
     </row>
@@ -584,15 +594,57 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Illustrations</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Likambo Kwadje, Mon premier voyage, Le Caméléon vert, 2001
+Carl Norac, Kuli et le Sorcier, L'École des loisirs, 2001
+Colette Hellings, Nsoko l’orphelin, L'Ecole des Loisirs, 2002
+Nana-Aïssa Touré, Yowa le petit dromadaire, Le Figuier, 2006
+Gustave Akakpo, Le Petit Monde merveilleux, éditions Grasset, 2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dominique_Mwankumi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dominique_Mwankumi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix du livre illustré pour enfants en 1998 pour La Pêche à la marmite[10]
-Prix des critiques de Livres pour enfants en 1998[10]
-Prix Sorcières 2008 Premières lectures pour Le Petit Monde merveilleux[11]
- Sélections de 2019 à 2023, durant cinq années d'affilée, pour le Prix commémoratif Astrid-Lindgren[7]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Prix du livre illustré pour enfants en 1998 pour La Pêche à la marmite
+Prix des critiques de Livres pour enfants en 1998
+Prix Sorcières 2008 Premières lectures pour Le Petit Monde merveilleux
+ Sélections de 2019 à 2023, durant cinq années d'affilée, pour le Prix commémoratif Astrid-Lindgren</t>
         </is>
       </c>
     </row>
